--- a/Data/Zusammenfassung Daten.xlsx
+++ b/Data/Zusammenfassung Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diren\Masterarbeit\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8E8A5-11ED-4153-BEC8-0B4588C3D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A761C3D-F754-4250-B537-C2CD538ECA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="1455" windowWidth="27960" windowHeight="16755" activeTab="1" xr2:uid="{71AF9721-DC18-F546-9841-F70B0835810F}"/>
+    <workbookView xWindow="915" yWindow="1770" windowWidth="27960" windowHeight="16755" xr2:uid="{71AF9721-DC18-F546-9841-F70B0835810F}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Objekt</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Z in cm</t>
   </si>
   <si>
-    <t>Absatnd der Linse zum höchsten Punkt(Teller)</t>
-  </si>
-  <si>
-    <t>Absatnd der Linse zum höchsten Punkt(Arbeitsfläche)</t>
-  </si>
-  <si>
     <t>Pilz</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Brot</t>
   </si>
   <si>
-    <t>GroundTruth Volumen (ml)</t>
-  </si>
-  <si>
     <t>Relative Abweichung</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Karotte und banane</t>
+  </si>
+  <si>
+    <t>X estimated</t>
+  </si>
+  <si>
+    <t>Y estimated</t>
+  </si>
+  <si>
+    <t>Z estimated</t>
   </si>
 </sst>
 </file>
@@ -385,16 +385,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E3B828C-63C7-4279-85A9-F9D6C9FB5692}" name="Tabelle1" displayName="Tabelle1" ref="A1:G1048576" totalsRowShown="0">
-  <autoFilter ref="A1:G1048576" xr:uid="{4E3B828C-63C7-4279-85A9-F9D6C9FB5692}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E3B828C-63C7-4279-85A9-F9D6C9FB5692}" name="Tabelle1" displayName="Tabelle1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{4E3B828C-63C7-4279-85A9-F9D6C9FB5692}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E752823-695B-4158-B1FB-F19F5D234498}" name="Objekt"/>
     <tableColumn id="2" xr3:uid="{61B1E595-FAE0-457C-8D32-F937A5F7E2C5}" name="X in cm"/>
     <tableColumn id="3" xr3:uid="{E677BC05-60AC-4D86-A092-D98B2CB53E12}" name="Y in cm"/>
     <tableColumn id="4" xr3:uid="{8CE6261A-A2F9-4532-8D9A-C80EB329F3F5}" name="Z in cm"/>
-    <tableColumn id="5" xr3:uid="{C6CAD5C5-801B-47B4-A8DE-6824C18B7A69}" name="Absatnd der Linse zum höchsten Punkt(Teller)"/>
-    <tableColumn id="6" xr3:uid="{DA46CF53-A37B-471E-8C24-576B3D005799}" name="Absatnd der Linse zum höchsten Punkt(Arbeitsfläche)"/>
-    <tableColumn id="7" xr3:uid="{E6269672-BA39-4245-BD3F-9ABE699D37BE}" name="GroundTruth Volumen (ml)"/>
+    <tableColumn id="5" xr3:uid="{C6CAD5C5-801B-47B4-A8DE-6824C18B7A69}" name="X estimated"/>
+    <tableColumn id="6" xr3:uid="{DA46CF53-A37B-471E-8C24-576B3D005799}" name="Y estimated"/>
+    <tableColumn id="7" xr3:uid="{E6269672-BA39-4245-BD3F-9ABE699D37BE}" name="Z estimated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -728,17 +728,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3367AE0-6B94-334E-8536-BBD6703D8789}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,8 +778,14 @@
       <c r="D2">
         <v>8.09</v>
       </c>
+      <c r="E2">
+        <v>7.6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
       <c r="G2">
-        <v>210</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,18 +802,18 @@
         <v>7.69</v>
       </c>
       <c r="E3">
-        <v>33.5</v>
+        <v>10.9</v>
       </c>
       <c r="F3">
-        <v>34.200000000000003</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G3">
-        <v>330</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>5.46</v>
@@ -818,18 +825,18 @@
         <v>5.16</v>
       </c>
       <c r="E4">
-        <v>36.799999999999997</v>
+        <v>5.3</v>
       </c>
       <c r="F4">
-        <v>36.799999999999997</v>
+        <v>6.9</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>13.14</v>
@@ -841,18 +848,18 @@
         <v>6.92</v>
       </c>
       <c r="E5">
-        <v>35.1</v>
+        <v>13.8</v>
       </c>
       <c r="F5">
-        <v>35.5</v>
+        <v>7.7</v>
       </c>
       <c r="G5">
-        <v>260</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>6.22</v>
@@ -863,73 +870,129 @@
       <c r="D6">
         <v>5.46</v>
       </c>
+      <c r="E6">
+        <v>6.2</v>
+      </c>
+      <c r="F6">
+        <v>6.28</v>
+      </c>
       <c r="G6">
-        <v>125</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C7">
+        <v>3.7</v>
+      </c>
+      <c r="D7">
+        <v>3.75</v>
+      </c>
+      <c r="E7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F7">
+        <v>3.45</v>
       </c>
       <c r="G7">
-        <v>105</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="C8">
+        <v>8.6999999999999993</v>
       </c>
       <c r="D8">
         <v>4.25</v>
       </c>
+      <c r="E8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
       <c r="G8">
-        <v>255</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>4.8</v>
+      </c>
+      <c r="C9">
+        <v>4.93</v>
+      </c>
+      <c r="D9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5.2</v>
       </c>
       <c r="G9">
-        <v>45</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>10.5</v>
+      </c>
+      <c r="C10">
+        <v>9.5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10.5</v>
+      </c>
+      <c r="F10">
+        <v>11.1</v>
+      </c>
       <c r="G10">
-        <v>100</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>16.8</v>
+      </c>
+      <c r="C11">
+        <v>3.8</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F11">
+        <v>3.6</v>
       </c>
       <c r="G11">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>3.7</v>
-      </c>
-      <c r="C13">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D13">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -944,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0024DDBB-1ADC-43FA-ABDE-616258E75608}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -963,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,7 +1083,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -1040,7 +1103,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>260</v>
@@ -1060,7 +1123,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>125</v>
@@ -1080,7 +1143,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>255</v>
@@ -1100,7 +1163,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>45</v>
@@ -1120,7 +1183,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>70</v>
@@ -1140,7 +1203,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>159</v>
@@ -1160,7 +1223,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>195</v>
@@ -1180,7 +1243,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>81</v>
@@ -1192,7 +1255,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1201,7 +1264,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1210,7 +1273,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1218,7 +1281,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>535</v>
@@ -1226,7 +1289,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>43</v>
@@ -1268,22 +1331,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,7 +1377,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -1327,7 +1390,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>260</v>
@@ -1340,7 +1403,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>125</v>
@@ -1353,7 +1416,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>105</v>
@@ -1366,7 +1429,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>255</v>
@@ -1379,7 +1442,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>45</v>
@@ -1392,7 +1455,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -1405,7 +1468,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>535</v>
@@ -1418,7 +1481,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>70</v>
@@ -1431,7 +1494,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1442,7 +1505,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1453,7 +1516,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/Data/Zusammenfassung Daten.xlsx
+++ b/Data/Zusammenfassung Daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diren\Masterarbeit\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A761C3D-F754-4250-B537-C2CD538ECA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60753D0-712C-454E-90BE-E7769BC6F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1770" windowWidth="27960" windowHeight="16755" xr2:uid="{71AF9721-DC18-F546-9841-F70B0835810F}"/>
+    <workbookView xWindow="9285" yWindow="2085" windowWidth="27960" windowHeight="16755" activeTab="2" xr2:uid="{71AF9721-DC18-F546-9841-F70B0835810F}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Objekt</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Karotte</t>
   </si>
   <si>
-    <t>Blumenkohl</t>
-  </si>
-  <si>
-    <t>Donut</t>
-  </si>
-  <si>
     <t>GroundTruth Volumen (cm³)</t>
   </si>
   <si>
@@ -116,12 +110,6 @@
   </si>
   <si>
     <t>Reis2</t>
-  </si>
-  <si>
-    <t>Karotte_über_Banane</t>
-  </si>
-  <si>
-    <t>Karotte und banane</t>
   </si>
   <si>
     <t>X estimated</t>
@@ -730,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3367AE0-6B94-334E-8536-BBD6703D8789}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -756,13 +744,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,7 +962,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>16.8</v>
@@ -1008,7 +996,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A13" sqref="A13:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1026,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,7 +1211,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>195</v>
@@ -1243,7 +1231,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>81</v>
@@ -1254,46 +1242,18 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>43</v>
-      </c>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1311,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6834702-CC2C-4AA7-9160-1FC44F0E589B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1331,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>15</v>
@@ -1493,9 +1453,6 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1504,9 +1461,6 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1515,9 +1469,6 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
